--- a/data/excel/curriculum/myp/Strand.xlsx
+++ b/data/excel/curriculum/myp/Strand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\igskolkovo\fixtures\curriculum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mindb\Downloads\criteria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200F23E9-70EA-4F3F-8C51-BBF9304C7DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC163FFB-C13E-4DA9-B31F-43B03D82AA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="1140" windowWidth="15780" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="23385" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -257,39 +257,6 @@
     <t>justify whether a solution makes sense in the context of the authentic real-life situation</t>
   </si>
   <si>
-    <t>demonstrate knowledge and understanding of the art form studied, including concepts, processes, and the use of subject-specific terminology</t>
-  </si>
-  <si>
-    <t>demonstrate an understanding of the role of the art form in original or displaced contexts</t>
-  </si>
-  <si>
-    <t>use acquired knowledge to purposefully inform artistic decisions in the process of creating artwork</t>
-  </si>
-  <si>
-    <t>demonstrate the acquisition and development of the skills and techniques of the art form studied</t>
-  </si>
-  <si>
-    <t>demonstrate the application of skills and techniques to create, perform and/or present art</t>
-  </si>
-  <si>
-    <t>develop a feasible, clear, imaginative and coherent artistic intention</t>
-  </si>
-  <si>
-    <t>demonstrate a range and depth of creative-thinking behaviours</t>
-  </si>
-  <si>
-    <t>demonstrate the exploration of ideas to shape artistic intention through to a point of realization</t>
-  </si>
-  <si>
-    <t>construct meaning and transfer learning to new settings</t>
-  </si>
-  <si>
-    <t>create an artistic response that intends to reflect or impact on the world around them</t>
-  </si>
-  <si>
-    <t>critique the artwork of self and others</t>
-  </si>
-  <si>
     <t>explain physical and health education factual, procedural and conceptual knowledge</t>
   </si>
   <si>
@@ -456,13 +423,34 @@
   </si>
   <si>
     <t>discuss how new interdisciplinary understanding enables action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">investigate a movement(s) or genre(s) in their chosen arts discipline, related to the statement of inquiry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">critique an artwork or performance from the chosen movement(s) or genre(s). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">practically explore ideas to inform development of a final artwork or performance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">present a clear artistic intention for the final artwork or performance in line with the statement of inquiry. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create or perform an artwork. </t>
+  </si>
+  <si>
+    <t>appraise their own artwork or performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reflect on their development as an artist. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +462,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MyriadPro"/>
     </font>
   </fonts>
   <fills count="2">
@@ -496,12 +490,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -804,20 +802,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="72.140625" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="83.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="70.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,17 +829,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2">
         <v>1</v>
       </c>
@@ -854,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -871,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -888,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5">
         <v>4</v>
       </c>
@@ -905,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -922,7 +924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -939,7 +941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8">
         <v>7</v>
       </c>
@@ -956,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -973,7 +975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10">
         <v>9</v>
       </c>
@@ -990,7 +992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1007,7 +1009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1024,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1041,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1058,7 +1060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1075,7 +1077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1092,7 +1094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="30">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1109,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1126,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1143,7 +1145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1160,7 +1162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1177,7 +1179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="30">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1194,7 +1196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1211,7 +1213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1228,7 +1230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1262,7 +1264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1279,7 +1281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1296,7 +1298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1330,7 +1332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1347,7 +1349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1364,7 +1366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1398,7 +1400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1415,7 +1417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1432,7 +1434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="30">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1449,7 +1451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1466,7 +1468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1483,7 +1485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1500,7 +1502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1517,7 +1519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="30">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1534,7 +1536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1551,7 +1553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1568,7 +1570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="30">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1585,7 +1587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1602,7 +1604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1619,7 +1621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1636,7 +1638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1653,7 +1655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1670,7 +1672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1687,7 +1689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1704,7 +1706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1721,7 +1723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1738,7 +1740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1755,7 +1757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="30">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1772,7 +1774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="30">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1789,7 +1791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1806,7 +1808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1823,7 +1825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="30">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1840,7 +1842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1857,7 +1859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1874,7 +1876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1891,7 +1893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1908,7 +1910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1925,7 +1927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="30">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1942,7 +1944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1959,7 +1961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1976,7 +1978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1993,7 +1995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2010,7 +2012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2027,7 +2029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2044,7 +2046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2061,7 +2063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2078,7 +2080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2095,7 +2097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2105,14 +2107,14 @@
       <c r="C76">
         <v>1</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>78</v>
+      <c r="D76" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="F76">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2122,14 +2124,14 @@
       <c r="C77">
         <v>2</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>79</v>
+      <c r="D77" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="F77">
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2137,16 +2139,16 @@
         <v>3</v>
       </c>
       <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="F78">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2154,16 +2156,16 @@
         <v>4</v>
       </c>
       <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>81</v>
+        <v>2</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F79">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2171,16 +2173,16 @@
         <v>5</v>
       </c>
       <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="F80">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2190,14 +2192,14 @@
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>83</v>
+      <c r="D81" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F81">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2207,806 +2209,738 @@
       <c r="C82">
         <v>2</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>84</v>
+      <c r="D82" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="F82">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F83">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="30">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F84">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F85">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F86">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F87">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F88">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F89">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F90">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F91">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F92">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F93">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="30">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F94">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="30">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="F95">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="30">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="F96">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="30">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F97">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="30">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E98" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="F98">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="30">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E99" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="F99">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E100" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="F100">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C101">
         <v>4</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E101" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F101">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="45">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E102" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="F102">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="30">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E103" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="F103">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E104" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="F104">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="30">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C105">
         <v>4</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E105" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F105">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E106" t="s">
-        <v>117</v>
+        <v>113</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="F106">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="30">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E107" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="F107">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C108">
         <v>3</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E108" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="F108">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C109">
         <v>4</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E109" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="F109">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E110" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F110">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E111" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F111">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C112">
         <v>3</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E112" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F112">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E113" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F113">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F114">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F115">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F116">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F117">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F118">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F119">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F120">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F121">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F122">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123">
-        <v>3</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F123">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124">
-        <v>4</v>
-      </c>
-      <c r="C124">
-        <v>2</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F124">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125">
-        <v>5</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F125">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126">
-        <v>6</v>
-      </c>
-      <c r="C126">
-        <v>2</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F126">
         <v>38</v>
       </c>
     </row>
